--- a/preprocessing/dotacie_pre/dotacie_nase_2012.xlsx
+++ b/preprocessing/dotacie_pre/dotacie_nase_2012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\school\pridav\project\preprocessing\dotacie_pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D22F58D-4A73-4A1C-AF21-6D218977F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7836F9EA-5EE2-4590-BFDA-EA7CE2B09256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>univerzita</t>
   </si>
@@ -66,9 +66,6 @@
     <t>studenti-denni</t>
   </si>
   <si>
-    <t>publikacie</t>
-  </si>
-  <si>
     <t>absolventi</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t>UJPŠ</t>
-  </si>
-  <si>
     <t>PU</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>STU</t>
   </si>
   <si>
-    <t>TU</t>
-  </si>
-  <si>
     <t>ŽU</t>
   </si>
   <si>
@@ -139,6 +130,21 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>UPJŠ</t>
+  </si>
+  <si>
+    <t>TUKE</t>
+  </si>
+  <si>
+    <t>TUZVO</t>
+  </si>
+  <si>
+    <t>publikacie 07711</t>
+  </si>
+  <si>
+    <t>publikacie 07712</t>
   </si>
 </sst>
 </file>
@@ -146,16 +152,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;Sk&quot;_-;\-* #,##0.00\ &quot;Sk&quot;_-;_-* &quot;-&quot;??\ &quot;Sk&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _S_k_-;\-* #,##0.00\ _S_k_-;_-* &quot;-&quot;??\ _S_k_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;Sk&quot;_-;\-* #,##0.00\ &quot;Sk&quot;_-;_-* &quot;-&quot;??\ &quot;Sk&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _S_k_-;\-* #,##0.00\ _S_k_-;_-* &quot;-&quot;??\ _S_k_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,8 +340,15 @@
       <sz val="10"/>
       <name val="Arial CE"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +465,14 @@
         <fgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -790,159 +817,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="26" fillId="24" borderId="30" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="24" borderId="32" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="24" borderId="33" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="24" borderId="31" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="24" borderId="19" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="24" borderId="14" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="69">
     <cellStyle name="20% - Accent1" xfId="2" xr:uid="{63ECAF2C-3EF0-4D8E-B7D6-460022C13387}"/>
     <cellStyle name="20% - Accent2" xfId="3" xr:uid="{F93838E4-CF5E-4F38-AB0A-C64522075FD1}"/>
     <cellStyle name="20% - Accent3" xfId="4" xr:uid="{C421DF84-56B7-4037-BF74-3A9F70B262FE}"/>
@@ -984,6 +1080,7 @@
     <cellStyle name="Neutral" xfId="40" xr:uid="{ACCE51B9-2B89-4A55-BDD3-22980AEE9433}"/>
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
     <cellStyle name="Normálna 2" xfId="41" xr:uid="{3A0F10AC-C5B4-4CEF-AC87-28E8C66046CD}"/>
+    <cellStyle name="Normálna 2 2" xfId="66" xr:uid="{4D99BE75-477C-47B3-9D8D-E46F112276E8}"/>
     <cellStyle name="Normálna 3" xfId="42" xr:uid="{A8A3586F-4147-49A4-AF95-F3F328769382}"/>
     <cellStyle name="Normálna 4" xfId="1" xr:uid="{AAAD5821-DBB7-4AD0-AD17-7F7D0149015B}"/>
     <cellStyle name="normálne 2" xfId="43" xr:uid="{6FFBBD9C-17C5-4389-99F1-0A793C1A703A}"/>
@@ -991,7 +1088,9 @@
     <cellStyle name="normálne 4" xfId="45" xr:uid="{9476FD68-6C01-45D2-ACFF-76AEAD78E0BB}"/>
     <cellStyle name="normálne 5" xfId="46" xr:uid="{85D62301-AD3D-49EC-9AA6-1DCE89B6063D}"/>
     <cellStyle name="normálne 6" xfId="47" xr:uid="{0C1FC474-E2C2-43AE-8A83-04E71735FE91}"/>
+    <cellStyle name="normálne 6 2" xfId="67" xr:uid="{66CDCEF2-83E2-43D1-BE50-51B1DE231F07}"/>
     <cellStyle name="normálne_09-01-07 pocty studentov  v02" xfId="48" xr:uid="{EA5929A5-D10C-4C1A-893F-08A275860891}"/>
+    <cellStyle name="normálne_Publikačná činnosť 2004 a 2005" xfId="68" xr:uid="{5917BABE-33EC-4141-89B1-9A66BBFC8696}"/>
     <cellStyle name="normální 2" xfId="49" xr:uid="{C77B8525-5FF9-4D38-9B9F-CCCB1E883BF0}"/>
     <cellStyle name="normální_ABS_TAB" xfId="50" xr:uid="{4E4722C3-0961-4EC2-A66D-9CF535C1A578}"/>
     <cellStyle name="Note" xfId="51" xr:uid="{F0AF00D4-1D77-495C-8F76-C00407DC1F0F}"/>
@@ -1286,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,14 +1401,15 @@
     <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.90625" customWidth="1"/>
+    <col min="16" max="16" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1353,12 +1453,15 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>59596765.656000003</v>
@@ -1379,7 +1482,7 @@
         <v>1559</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="12">
         <v>27422</v>
@@ -1387,26 +1490,28 @@
       <c r="J2" s="16">
         <v>20360</v>
       </c>
-      <c r="K2">
-        <f>SUM(A24:E24)</f>
-        <v>35286</v>
-      </c>
-      <c r="L2" s="26">
+      <c r="K2" s="26">
         <v>20605.809572134782</v>
       </c>
-      <c r="M2" s="19">
+      <c r="L2" s="19">
         <v>10861</v>
       </c>
-      <c r="N2" s="22">
+      <c r="M2" s="22">
         <v>10099</v>
       </c>
-      <c r="O2" s="25">
+      <c r="N2" s="25">
         <v>800848</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O2" s="43">
+        <v>20.587638541092719</v>
+      </c>
+      <c r="P2" s="44">
+        <v>25.557862809065924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>18046181.240000002</v>
@@ -1427,7 +1532,7 @@
         <v>314</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="11">
         <v>8699</v>
@@ -1435,26 +1540,28 @@
       <c r="J3" s="15">
         <v>7094</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K21" si="0">SUM(A25:E25)</f>
-        <v>10896</v>
-      </c>
-      <c r="L3" s="27">
+      <c r="K3" s="27">
         <v>5066.2126969811479</v>
       </c>
-      <c r="M3" s="17">
+      <c r="L3" s="17">
         <v>1806</v>
       </c>
-      <c r="N3" s="20">
+      <c r="M3" s="20">
         <v>1785</v>
       </c>
-      <c r="O3" s="23">
+      <c r="N3" s="23">
         <v>126960</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O3" s="40">
+        <v>6.9338613783636855</v>
+      </c>
+      <c r="P3" s="39">
+        <v>10.111161014753385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>13062238.4</v>
@@ -1475,7 +1582,7 @@
         <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="11">
         <v>10571</v>
@@ -1483,26 +1590,28 @@
       <c r="J4" s="15">
         <v>6843</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>11850</v>
-      </c>
-      <c r="L4" s="27">
+      <c r="K4" s="27">
         <v>7005.5987583221558</v>
       </c>
-      <c r="M4" s="17">
+      <c r="L4" s="17">
         <v>1921</v>
       </c>
-      <c r="N4" s="20">
+      <c r="M4" s="20">
         <v>1954</v>
       </c>
-      <c r="O4" s="23">
+      <c r="N4" s="23">
         <v>154240</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O4" s="40">
+        <v>5.8826960759060158</v>
+      </c>
+      <c r="P4" s="39">
+        <v>4.5464391347240687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>6701348.1440000003</v>
@@ -1523,7 +1632,7 @@
         <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I5" s="11">
         <v>5912</v>
@@ -1531,26 +1640,28 @@
       <c r="J5" s="15">
         <v>4538</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>3575</v>
-      </c>
-      <c r="L5" s="27">
+      <c r="K5" s="27">
         <v>3444.1773755416348</v>
       </c>
-      <c r="M5" s="17">
+      <c r="L5" s="17">
         <v>224</v>
       </c>
-      <c r="N5" s="20">
+      <c r="M5" s="20">
         <v>218</v>
       </c>
-      <c r="O5" s="23">
+      <c r="N5" s="23">
         <v>13952</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O5" s="40">
+        <v>2.1460644167673033</v>
+      </c>
+      <c r="P5" s="39">
+        <v>1.9683926928785838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>6715514.6880000001</v>
@@ -1571,7 +1682,7 @@
         <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I6" s="11">
         <v>1873</v>
@@ -1579,26 +1690,28 @@
       <c r="J6" s="15">
         <v>1572</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>3893</v>
-      </c>
-      <c r="L6" s="27">
+      <c r="K6" s="27">
         <v>1457.4993355006504</v>
       </c>
-      <c r="M6" s="17">
+      <c r="L6" s="17">
         <v>908</v>
       </c>
-      <c r="N6" s="20">
+      <c r="M6" s="20">
         <v>814</v>
       </c>
-      <c r="O6" s="23">
+      <c r="N6" s="23">
         <v>26048</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O6" s="40">
+        <v>1.8605504730972187</v>
+      </c>
+      <c r="P6" s="39">
+        <v>2.207530374611681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>15671333.408</v>
@@ -1619,7 +1732,7 @@
         <v>242</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I7" s="11">
         <v>12388</v>
@@ -1627,26 +1740,28 @@
       <c r="J7" s="15">
         <v>8060</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>12371</v>
-      </c>
-      <c r="L7" s="27">
+      <c r="K7" s="27">
         <v>7709.2862614763117</v>
       </c>
-      <c r="M7" s="17">
+      <c r="L7" s="17">
         <v>1552</v>
       </c>
-      <c r="N7" s="20">
+      <c r="M7" s="20">
         <v>1551</v>
       </c>
-      <c r="O7" s="23">
+      <c r="N7" s="23">
         <v>124080</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O7" s="40">
+        <v>6.8484127542762785</v>
+      </c>
+      <c r="P7" s="39">
+        <v>5.3281360218627754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>15692815.568</v>
@@ -1667,7 +1782,7 @@
         <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="11">
         <v>12349</v>
@@ -1675,26 +1790,28 @@
       <c r="J8" s="15">
         <v>7564</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>12671</v>
-      </c>
-      <c r="L8" s="27">
+      <c r="K8" s="27">
         <v>7862.6570929499876</v>
       </c>
-      <c r="M8" s="17">
+      <c r="L8" s="17">
         <v>2434</v>
       </c>
-      <c r="N8" s="20">
+      <c r="M8" s="20">
         <v>2328</v>
       </c>
-      <c r="O8" s="23">
+      <c r="N8" s="23">
         <v>164480</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O8" s="40">
+        <v>7.4860872982533326</v>
+      </c>
+      <c r="P8" s="39">
+        <v>5.7471335212144812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>8195020.7120000003</v>
@@ -1715,7 +1832,7 @@
         <v>188</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="11">
         <v>7516</v>
@@ -1723,22 +1840,24 @@
       <c r="J9" s="15">
         <v>4386</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>6770</v>
-      </c>
-      <c r="L9" s="27">
+      <c r="K9" s="27">
         <v>3771.7205873020275</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="23">
+      <c r="L9" s="17"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O9" s="40">
+        <v>3.9613469330786502</v>
+      </c>
+      <c r="P9" s="39">
+        <v>2.6464629763033916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>46202540.136</v>
@@ -1759,7 +1878,7 @@
         <v>1190</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" s="11">
         <v>18226</v>
@@ -1767,26 +1886,28 @@
       <c r="J10" s="15">
         <v>15961</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>29577</v>
-      </c>
-      <c r="L10" s="27">
+      <c r="K10" s="27">
         <v>16279.380181736266</v>
       </c>
-      <c r="M10" s="17">
+      <c r="L10" s="17">
         <v>6724</v>
       </c>
-      <c r="N10" s="20">
+      <c r="M10" s="20">
         <v>6715</v>
       </c>
-      <c r="O10" s="23">
+      <c r="N10" s="23">
         <v>533360</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O10" s="40">
+        <v>11.39425701630168</v>
+      </c>
+      <c r="P10" s="39">
+        <v>14.626550393713911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <v>29350910.272</v>
@@ -1807,7 +1928,7 @@
         <v>554</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" s="11">
         <v>16319</v>
@@ -1815,26 +1936,28 @@
       <c r="J11" s="15">
         <v>12365</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>20881</v>
-      </c>
-      <c r="L11" s="27">
+      <c r="K11" s="27">
         <v>12087.838206676404</v>
       </c>
-      <c r="M11" s="17">
+      <c r="L11" s="17">
         <v>4984</v>
       </c>
-      <c r="N11" s="20">
+      <c r="M11" s="20">
         <v>5843</v>
       </c>
-      <c r="O11" s="23">
+      <c r="N11" s="23">
         <v>414400</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O11" s="40">
+        <v>7.2678023898268274</v>
+      </c>
+      <c r="P11" s="39">
+        <v>6.9312112005509281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>20430836.671999998</v>
@@ -1855,7 +1978,7 @@
         <v>392</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11">
         <v>11715</v>
@@ -1863,26 +1986,28 @@
       <c r="J12" s="15">
         <v>8879</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>13641</v>
-      </c>
-      <c r="L12" s="27">
+      <c r="K12" s="27">
         <v>8487.3401826132722</v>
       </c>
-      <c r="M12" s="17">
+      <c r="L12" s="17">
         <v>5044</v>
       </c>
-      <c r="N12" s="20">
+      <c r="M12" s="20">
         <v>4499</v>
       </c>
-      <c r="O12" s="23">
+      <c r="N12" s="23">
         <v>354448</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O12" s="40">
+        <v>3.9313160380450065</v>
+      </c>
+      <c r="P12" s="39">
+        <v>3.1570346740827446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>5997982.1520000007</v>
@@ -1903,7 +2028,7 @@
         <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="11">
         <v>5707</v>
@@ -1911,26 +2036,28 @@
       <c r="J13" s="15">
         <v>3142</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>3577</v>
-      </c>
-      <c r="L13" s="27">
+      <c r="K13" s="27">
         <v>4262.6401848004534</v>
       </c>
-      <c r="M13" s="17">
+      <c r="L13" s="17">
         <v>320</v>
       </c>
-      <c r="N13" s="20">
+      <c r="M13" s="20">
         <v>158</v>
       </c>
-      <c r="O13" s="23">
+      <c r="N13" s="23">
         <v>10048</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O13" s="40">
+        <v>1.2528674578944929</v>
+      </c>
+      <c r="P13" s="39">
+        <v>1.2673947389430791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>16989556.447999999</v>
@@ -1951,7 +2078,7 @@
         <v>257</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11">
         <v>12759</v>
@@ -1959,26 +2086,28 @@
       <c r="J14" s="15">
         <v>9808</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>13658</v>
-      </c>
-      <c r="L14" s="27">
+      <c r="K14" s="27">
         <v>8159.7001149962562</v>
       </c>
-      <c r="M14" s="17">
+      <c r="L14" s="17">
         <v>3530</v>
       </c>
-      <c r="N14" s="20">
+      <c r="M14" s="20">
         <v>3308</v>
       </c>
-      <c r="O14" s="23">
+      <c r="N14" s="23">
         <v>240288</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O14" s="40">
+        <v>6.0389494264011603</v>
+      </c>
+      <c r="P14" s="39">
+        <v>4.1448826631717477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>15435365.48</v>
@@ -1999,7 +2128,7 @@
         <v>258</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11">
         <v>9964</v>
@@ -2007,26 +2136,28 @@
       <c r="J15" s="15">
         <v>6821</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>10084</v>
-      </c>
-      <c r="L15" s="27">
+      <c r="K15" s="27">
         <v>7448.0543390309131</v>
       </c>
-      <c r="M15" s="17">
+      <c r="L15" s="17">
         <v>3028</v>
       </c>
-      <c r="N15" s="20">
+      <c r="M15" s="20">
         <v>2536</v>
       </c>
-      <c r="O15" s="23">
+      <c r="N15" s="23">
         <v>164768</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O15" s="40">
+        <v>4.5532500301553167</v>
+      </c>
+      <c r="P15" s="39">
+        <v>4.1092952011753896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>8525810.175999999</v>
@@ -2047,7 +2178,7 @@
         <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I16" s="11">
         <v>5235</v>
@@ -2055,26 +2186,28 @@
       <c r="J16" s="15">
         <v>3353</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>5658</v>
-      </c>
-      <c r="L16" s="27">
+      <c r="K16" s="27">
         <v>3215.565031470479</v>
       </c>
-      <c r="M16" s="17">
+      <c r="L16" s="17">
         <v>1524</v>
       </c>
-      <c r="N16" s="20">
+      <c r="M16" s="20">
         <v>1484</v>
       </c>
-      <c r="O16" s="23">
+      <c r="N16" s="23">
         <v>88048</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O16" s="40">
+        <v>3.1209470455635846</v>
+      </c>
+      <c r="P16" s="39">
+        <v>2.6074153133953248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
         <v>4922606.5600000005</v>
@@ -2095,7 +2228,7 @@
         <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11">
         <v>1052</v>
@@ -2103,22 +2236,24 @@
       <c r="J17" s="15">
         <v>936</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>282</v>
-      </c>
-      <c r="L17" s="27">
+      <c r="K17" s="27">
         <v>2159.4276921575652</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="23">
+      <c r="L17" s="17"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O17" s="40">
+        <v>0.23101565396755078</v>
+      </c>
+      <c r="P17" s="39">
+        <v>0.10695605537087072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>3692731.4560000002</v>
@@ -2139,7 +2274,7 @@
         <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I18" s="11">
         <v>687</v>
@@ -2147,22 +2282,24 @@
       <c r="J18" s="15">
         <v>603</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>397</v>
-      </c>
-      <c r="L18" s="27">
+      <c r="K18" s="27">
         <v>1283.3800000000001</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="23">
+      <c r="L18" s="17"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O18" s="40">
+        <v>0.46864577149372844</v>
+      </c>
+      <c r="P18" s="39">
+        <v>0.11826592629428417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
         <v>2663992.2319999998</v>
@@ -2183,7 +2320,7 @@
         <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I19" s="11">
         <v>629</v>
@@ -2191,26 +2328,28 @@
       <c r="J19" s="15">
         <v>560</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>228</v>
-      </c>
-      <c r="L19" s="27">
+      <c r="K19" s="27">
         <v>1274.2848121618804</v>
       </c>
-      <c r="M19" s="17">
+      <c r="L19" s="17">
         <v>136</v>
       </c>
-      <c r="N19" s="20">
+      <c r="M19" s="20">
         <v>100</v>
       </c>
-      <c r="O19" s="23">
+      <c r="N19" s="23">
         <v>6400</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O19" s="40">
+        <v>0.22326912482958849</v>
+      </c>
+      <c r="P19" s="39">
+        <v>8.5289225039752489E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
         <v>9145252.0800000001</v>
@@ -2231,7 +2370,7 @@
         <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20" s="11">
         <v>7353</v>
@@ -2239,26 +2378,28 @@
       <c r="J20" s="15">
         <v>3825</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>8433</v>
-      </c>
-      <c r="L20" s="27">
+      <c r="K20" s="27">
         <v>5968.8978296277119</v>
       </c>
-      <c r="M20" s="17">
+      <c r="L20" s="17">
         <v>631</v>
       </c>
-      <c r="N20" s="20">
+      <c r="M20" s="20">
         <v>541</v>
       </c>
-      <c r="O20" s="23">
+      <c r="N20" s="23">
         <v>28992</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O20" s="40">
+        <v>5.0829535348770518</v>
+      </c>
+      <c r="P20" s="39">
+        <v>4.2414893388566739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>2086538.2480000001</v>
@@ -2279,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I21" s="11">
         <v>2403</v>
@@ -2287,24 +2428,26 @@
       <c r="J21" s="15">
         <v>1552</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
-      <c r="L21" s="27">
+      <c r="K21" s="27">
         <v>1188.4155772967176</v>
       </c>
-      <c r="M21" s="18">
+      <c r="L21" s="18">
         <v>513</v>
       </c>
-      <c r="N21" s="21">
+      <c r="M21" s="21">
         <v>468</v>
       </c>
-      <c r="O21" s="24">
+      <c r="N21" s="24">
         <v>37440</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O21" s="41">
+        <v>0.72806863980880432</v>
+      </c>
+      <c r="P21" s="42">
+        <v>0.49109672399100235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="34">
         <v>283</v>
       </c>
@@ -2321,7 +2464,7 @@
         <v>23431</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="28">
         <v>77</v>
       </c>
@@ -2338,7 +2481,7 @@
         <v>6572</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>163</v>
       </c>
@@ -2355,7 +2498,7 @@
         <v>9655</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>45</v>
       </c>
@@ -2372,7 +2515,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>13</v>
       </c>
@@ -2389,7 +2532,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>165</v>
       </c>
@@ -2406,7 +2549,7 @@
         <v>9889</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="28">
         <v>216</v>
       </c>
@@ -2423,7 +2566,7 @@
         <v>10076</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
         <v>94</v>
       </c>
@@ -2440,7 +2583,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="28">
         <v>135</v>
       </c>
